--- a/week-3/3-2-pivot-tables/pivot-table-warmup.xlsx
+++ b/week-3/3-2-pivot-tables/pivot-table-warmup.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-3\3-2-pivot-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8614" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="21">
   <si>
     <t>East</t>
   </si>
@@ -79,13 +79,10 @@
     <t>https://faculty.winthrop.edu/dannellys/mgmt661/homework/06_Pivot_Tables.htm</t>
   </si>
   <si>
-    <t>1. What are the averages for purchases in each region?</t>
+    <t>What is the best-selling product line for each region?</t>
   </si>
   <si>
-    <t>2. What form of payment is most common?</t>
-  </si>
-  <si>
-    <t>3. Do our customers shop at work (most likely between 8:00 and 17:00) or at home?</t>
+    <t>What form of payment is most common?</t>
   </si>
 </sst>
 </file>
@@ -264,7 +261,7 @@
     <tableColumn id="6" name="Product" totalsRowDxfId="2"/>
     <tableColumn id="7" name="Time Of Day" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -561,9 +558,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -583,20 +580,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.69140625" customWidth="1"/>
+    <col min="2" max="2" width="9.3046875" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" customWidth="1"/>
+    <col min="4" max="4" width="9.4609375" customWidth="1"/>
+    <col min="5" max="5" width="14.07421875" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" customWidth="1"/>
+    <col min="7" max="7" width="13.69140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -618,8 +617,11 @@
       <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -642,10 +644,10 @@
         <v>0.92986111111111114</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -668,10 +670,10 @@
         <v>0.56041666666666667</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -693,11 +695,8 @@
       <c r="G4" s="2">
         <v>0.6020833333333333</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -720,7 +719,7 @@
         <v>0.65138888888888891</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -743,7 +742,7 @@
         <v>0.63958333333333328</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -766,7 +765,7 @@
         <v>0.5493055555555556</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -789,7 +788,7 @@
         <v>0.9159722222222223</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -812,7 +811,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -835,7 +834,7 @@
         <v>0.81597222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -858,7 +857,7 @@
         <v>0.55972222222222223</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -881,7 +880,7 @@
         <v>0.59513888888888888</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -904,7 +903,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -927,7 +926,7 @@
         <v>0.41944444444444445</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -950,7 +949,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10015</v>
       </c>
@@ -973,7 +972,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10016</v>
       </c>
@@ -996,7 +995,7 @@
         <v>0.8534722222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>0.62708333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10018</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10020</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>0.52569444444444446</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10021</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10022</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>0.86250000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10023</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10024</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>0.68541666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>0.84861111111111109</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10026</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>0.83194444444444438</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10027</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>0.8222222222222223</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10028</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>0.81111111111111101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10029</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>0.65833333333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10030</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>0.7597222222222223</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10031</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>0.63541666666666663</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10032</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>0.54097222222222219</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10033</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>0.73472222222222217</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10034</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10035</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>0.58680555555555558</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10036</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10037</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10038</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>0.43611111111111112</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10039</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10040</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10041</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10042</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>0.68263888888888891</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10043</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10044</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>0.57361111111111118</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10045</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10046</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>10047</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>0.78472222222222221</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>10048</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10049</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>10050</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>0.78680555555555554</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10051</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10052</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>0.72777777777777775</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10053</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>0.5541666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>10054</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10055</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>10056</v>
       </c>
@@ -1916,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>10057</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>0.83263888888888893</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>10058</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>0.73263888888888884</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>10059</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>0.66111111111111109</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>10060</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>10061</v>
       </c>
@@ -2031,7 +2030,7 @@
         <v>0.82847222222222217</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>10062</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>0.63611111111111118</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>10063</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>0.57986111111111105</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10064</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>0.56527777777777777</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>10065</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>0.80625000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>10066</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>0.62638888888888888</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>10067</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>10068</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>0.48541666666666666</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>10069</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>0.84652777777777777</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10070</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>10071</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>0.4381944444444445</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>10072</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>0.41736111111111113</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>10073</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>10074</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>10075</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>0.42569444444444443</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>10076</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>10077</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>10078</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>10079</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>0.43263888888888885</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>10080</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>0.47847222222222219</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>10081</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>10082</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>0.79305555555555562</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>10083</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>10084</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>0.51666666666666672</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>10085</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>0.56458333333333333</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>10086</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>0.80972222222222223</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>10087</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>0.93055555555555547</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>10088</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>10089</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>10090</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>10091</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>10092</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>0.67222222222222217</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>10093</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>0.7715277777777777</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>10094</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>10095</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10096</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>0.54791666666666672</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>10097</v>
       </c>
@@ -2859,7 +2858,7 @@
         <v>0.61388888888888882</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>10098</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>10099</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>0.75069444444444444</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10100</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>0.77013888888888893</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10101</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>0.47430555555555554</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>10102</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>10103</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>0.94444444444444453</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10104</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>10105</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>0.42083333333333334</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10106</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>0.79305555555555562</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10107</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>10108</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>10109</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>0.78611111111111109</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10110</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>0.81944444444444453</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>10111</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>0.45347222222222222</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>10112</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>0.84097222222222223</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>10113</v>
       </c>
@@ -3227,7 +3226,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>10114</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>0.4284722222222222</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>10115</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>0.6069444444444444</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>10116</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>0.46319444444444446</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>10117</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>0.44374999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>10118</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>0.8652777777777777</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>10119</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>0.86250000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>10120</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>0.52916666666666667</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>10121</v>
       </c>
@@ -3411,7 +3410,7 @@
         <v>0.93819444444444444</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>10122</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>0.80138888888888893</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>10123</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>0.51111111111111118</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>10124</v>
       </c>
@@ -3480,7 +3479,7 @@
         <v>0.74305555555555547</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>10125</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>0.64097222222222217</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>10126</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>10127</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>10128</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>0.53402777777777777</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>10129</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>0.61736111111111114</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>10130</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>0.68333333333333324</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>10131</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>10132</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>0.70625000000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>10133</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>0.70138888888888884</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>10134</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>0.62638888888888888</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>10135</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>10136</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>0.4680555555555555</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>10137</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>10138</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>0.77638888888888891</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>10139</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>10140</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>0.6972222222222223</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>10141</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>0.68194444444444446</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>10142</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>0.74583333333333324</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>10143</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>0.76180555555555562</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>10144</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>10145</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>0.52013888888888882</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>10146</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>10147</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>0.47152777777777777</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>10148</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>10149</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>0.8618055555555556</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>10150</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>0.64097222222222217</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>10151</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>0.90694444444444444</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>10152</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>10153</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>10154</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>0.87986111111111109</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>10155</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>10156</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v>0.66805555555555562</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>10157</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>10158</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>0.73888888888888893</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>10159</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>0.72013888888888899</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>10160</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>0.43263888888888885</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>10161</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>10162</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>0.9243055555555556</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>10163</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>0.45347222222222222</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>10164</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>10165</v>
       </c>
@@ -4423,7 +4422,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>10166</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>0.6791666666666667</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>10167</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>0.70208333333333339</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>10168</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>10169</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>0.9145833333333333</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>10170</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>10171</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>0.85972222222222217</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>10172</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>10173</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>10174</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>0.74444444444444446</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>10175</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>0.66111111111111109</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>10176</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>0.45347222222222222</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>10177</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>0.86458333333333337</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>10178</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>10179</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>0.84236111111111101</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>10180</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>0.85555555555555562</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>10181</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>0.55902777777777779</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>10182</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>0.90833333333333333</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>10183</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>10184</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>10185</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>0.8652777777777777</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>10186</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>10187</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>10188</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>0.51041666666666663</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>10189</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>10190</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>10191</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>10192</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>0.7319444444444444</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>10193</v>
       </c>
@@ -5067,7 +5066,7 @@
         <v>0.56736111111111109</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>10194</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>0.85277777777777775</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>10195</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>0.85763888888888884</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>10196</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>0.82430555555555562</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>10197</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>0.4770833333333333</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>10198</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>0.8041666666666667</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>10199</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>10200</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>0.7270833333333333</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>10201</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>10202</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>0.63124999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>10203</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>10204</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>10205</v>
       </c>
@@ -5343,7 +5342,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>10206</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>0.88402777777777775</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>10207</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>10208</v>
       </c>
@@ -5412,7 +5411,7 @@
         <v>0.47083333333333338</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>10209</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>0.68125000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>10210</v>
       </c>
@@ -5458,7 +5457,7 @@
         <v>0.5180555555555556</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>10211</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>10212</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>0.84930555555555554</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>10213</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>10214</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>10215</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>10216</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>10217</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>10218</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>0.6777777777777777</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>10219</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>10220</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>0.69513888888888886</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>10221</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>0.81041666666666667</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>10222</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>0.83611111111111114</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>10223</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>0.74513888888888891</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>10224</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>0.79722222222222217</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>10225</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>10226</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>10227</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>0.57013888888888886</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>10228</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>10229</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>10230</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>0.42222222222222222</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>10231</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>0.43958333333333338</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>10232</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>0.60277777777777775</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>10233</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>10234</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>10235</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>10236</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>10237</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>0.84027777777777779</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>10238</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>0.59930555555555554</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>10239</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>10240</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>10241</v>
       </c>
@@ -6171,7 +6170,7 @@
         <v>0.45763888888888887</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>10242</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>0.85138888888888886</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>10243</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>0.5131944444444444</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>10244</v>
       </c>
@@ -6240,7 +6239,7 @@
         <v>0.67708333333333337</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>10245</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>10246</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>0.8569444444444444</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>10247</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>10248</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>0.52847222222222223</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>10249</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>10250</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>0.53819444444444442</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>10251</v>
       </c>
@@ -6401,7 +6400,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>10252</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>0.58611111111111114</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>10253</v>
       </c>
@@ -6447,7 +6446,7 @@
         <v>0.72152777777777777</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>10254</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>10255</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>10256</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>10257</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>0.71805555555555556</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>10258</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>0.69166666666666676</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>10259</v>
       </c>
@@ -6585,7 +6584,7 @@
         <v>0.9159722222222223</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>10260</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>10261</v>
       </c>
@@ -6631,7 +6630,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>10262</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>0.48819444444444443</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>10263</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>10264</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>0.65138888888888891</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>10265</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>0.86041666666666661</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>10266</v>
       </c>
@@ -6746,7 +6745,7 @@
         <v>0.72152777777777777</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>10267</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>0.73888888888888893</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>10268</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>10269</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>10270</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>10271</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>10272</v>
       </c>
@@ -6884,7 +6883,7 @@
         <v>0.44374999999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>10273</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>10274</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>0.67291666666666661</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>10275</v>
       </c>
@@ -6953,7 +6952,7 @@
         <v>0.84583333333333333</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>10276</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>0.86597222222222225</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>10277</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>0.58263888888888882</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>10278</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>0.72986111111111107</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>10279</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>0.7993055555555556</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>10280</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>10281</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>10282</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>10283</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>0.90347222222222223</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>10284</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>0.68194444444444446</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>10285</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>0.63194444444444442</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>10286</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>10287</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>10288</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>0.78680555555555554</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>10289</v>
       </c>
@@ -7275,7 +7274,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>10290</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>10291</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>0.68194444444444446</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>10292</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>0.47013888888888888</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>10293</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>0.80347222222222225</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>10294</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>0.71944444444444444</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>10295</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>10296</v>
       </c>
@@ -7436,7 +7435,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>10297</v>
       </c>
@@ -7459,7 +7458,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>10298</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>0.54722222222222217</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>10299</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>0.70347222222222217</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>10300</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>10301</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>10302</v>
       </c>
@@ -7574,7 +7573,7 @@
         <v>0.81597222222222221</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>10303</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>0.91805555555555562</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>10304</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>0.95486111111111116</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>10305</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>10306</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>0.42569444444444443</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>10307</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>0.85069444444444453</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>10308</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>10309</v>
       </c>
@@ -7735,7 +7734,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>10310</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>0.84652777777777777</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>10311</v>
       </c>
@@ -7781,7 +7780,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>10312</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>0.87083333333333324</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>10313</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>0.4916666666666667</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>10314</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>0.8881944444444444</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>10315</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>10316</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>10317</v>
       </c>
@@ -7919,7 +7918,7 @@
         <v>0.68263888888888891</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>10318</v>
       </c>
@@ -7942,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>10319</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>0.73402777777777783</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>10320</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>10321</v>
       </c>
@@ -8011,7 +8010,7 @@
         <v>0.80625000000000002</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>10322</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>10323</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>0.56527777777777777</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>10324</v>
       </c>
@@ -8080,7 +8079,7 @@
         <v>0.69930555555555562</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>10325</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>10326</v>
       </c>
@@ -8126,7 +8125,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>10327</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>0.48958333333333331</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>10328</v>
       </c>
@@ -8172,7 +8171,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>10329</v>
       </c>
@@ -8195,7 +8194,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>10330</v>
       </c>
@@ -8218,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>10331</v>
       </c>
@@ -8241,7 +8240,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>10332</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>0.9194444444444444</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>10333</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>10334</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>0.5131944444444444</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>10335</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>10336</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>0.90069444444444446</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>10337</v>
       </c>
@@ -8379,7 +8378,7 @@
         <v>0.68263888888888891</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>10338</v>
       </c>
@@ -8402,7 +8401,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>10339</v>
       </c>
@@ -8425,7 +8424,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>10340</v>
       </c>
@@ -8448,7 +8447,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>10341</v>
       </c>
@@ -8471,7 +8470,7 @@
         <v>0.61111111111111105</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>10342</v>
       </c>
@@ -8494,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>10343</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>10344</v>
       </c>
@@ -8540,7 +8539,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>10345</v>
       </c>
@@ -8563,7 +8562,7 @@
         <v>0.86944444444444446</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>10346</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>0.75694444444444453</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>10347</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>10348</v>
       </c>
@@ -8632,7 +8631,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>10349</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>10350</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>10351</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>0.4777777777777778</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>10352</v>
       </c>
@@ -8724,7 +8723,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>10353</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>0.71250000000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>10354</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>10355</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>10356</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>10357</v>
       </c>
@@ -8839,7 +8838,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>10358</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>0.46736111111111112</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>10359</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>0.48125000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>10360</v>
       </c>
@@ -8908,7 +8907,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>10361</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>0.72361111111111109</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>10362</v>
       </c>
@@ -8954,7 +8953,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>10363</v>
       </c>
@@ -8977,7 +8976,7 @@
         <v>0.60347222222222219</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>10364</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>0.81666666666666676</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>10365</v>
       </c>
@@ -9023,7 +9022,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>10366</v>
       </c>
@@ -9046,7 +9045,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>10367</v>
       </c>
@@ -9069,7 +9068,7 @@
         <v>0.55347222222222225</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>10368</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>10369</v>
       </c>
@@ -9115,7 +9114,7 @@
         <v>0.57777777777777783</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>10370</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>0.6694444444444444</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>10371</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>0.67638888888888893</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>10372</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>0.77708333333333324</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>10373</v>
       </c>
@@ -9207,7 +9206,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>10374</v>
       </c>
@@ -9230,7 +9229,7 @@
         <v>0.60972222222222217</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>10375</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>10376</v>
       </c>
@@ -9276,7 +9275,7 @@
         <v>0.52430555555555558</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>10377</v>
       </c>
@@ -9299,7 +9298,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>10378</v>
       </c>
@@ -9322,7 +9321,7 @@
         <v>0.8534722222222223</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>10379</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>0.77638888888888891</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>10380</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>10381</v>
       </c>
@@ -9391,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>10382</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>0.4465277777777778</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>10383</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>0.7729166666666667</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>10384</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>10385</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>0.56944444444444442</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>10386</v>
       </c>
@@ -9506,7 +9505,7 @@
         <v>0.89375000000000004</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>10387</v>
       </c>
@@ -9529,7 +9528,7 @@
         <v>0.48680555555555555</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>10388</v>
       </c>
@@ -9552,7 +9551,7 @@
         <v>0.60555555555555551</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>10389</v>
       </c>
@@ -9575,7 +9574,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>10390</v>
       </c>
@@ -9598,7 +9597,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>10391</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>10392</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>0.75624999999999998</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>10393</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>10394</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>0.94513888888888886</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>10395</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>0.85138888888888886</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>10396</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>10397</v>
       </c>
@@ -9759,7 +9758,7 @@
         <v>0.7402777777777777</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>10398</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>0.6743055555555556</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>10399</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>0.67638888888888893</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>10400</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>10401</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>0.71319444444444446</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>10402</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>0.8027777777777777</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>10403</v>
       </c>
@@ -9897,7 +9896,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>10404</v>
       </c>
@@ -9920,7 +9919,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>10405</v>
       </c>
@@ -9943,7 +9942,7 @@
         <v>0.94236111111111109</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>10406</v>
       </c>
@@ -9966,7 +9965,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>10407</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>0.62986111111111109</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>10408</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>0.62708333333333333</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>10409</v>
       </c>
@@ -10035,7 +10034,7 @@
         <v>0.83472222222222225</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>10410</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>0.74791666666666667</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>10411</v>
       </c>
@@ -10081,7 +10080,7 @@
         <v>0.81736111111111109</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>10412</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>10413</v>
       </c>
@@ -10127,7 +10126,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>10414</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>10415</v>
       </c>
@@ -10173,7 +10172,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>10416</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>0.77708333333333324</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>10417</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>0.47569444444444442</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>10418</v>
       </c>
@@ -10242,7 +10241,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>10419</v>
       </c>
@@ -10265,7 +10264,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>10420</v>
       </c>
@@ -10288,7 +10287,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>10421</v>
       </c>
@@ -10311,7 +10310,7 @@
         <v>0.57638888888888895</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>10422</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>10423</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>0.80486111111111114</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>10424</v>
       </c>
@@ -10380,7 +10379,7 @@
         <v>0.49513888888888885</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>10425</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>10426</v>
       </c>
@@ -10426,7 +10425,7 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>10427</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>0.59305555555555556</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>10428</v>
       </c>
@@ -10472,7 +10471,7 @@
         <v>0.61597222222222225</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>10429</v>
       </c>
@@ -10495,7 +10494,7 @@
         <v>0.60972222222222217</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>10430</v>
       </c>
@@ -10518,7 +10517,7 @@
         <v>0.84236111111111101</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>10431</v>
       </c>
@@ -10541,7 +10540,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>10432</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>10433</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>0.55763888888888891</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>10434</v>
       </c>
@@ -10610,7 +10609,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>10435</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>10436</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>10437</v>
       </c>
@@ -10679,7 +10678,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>10438</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>10439</v>
       </c>
@@ -10725,7 +10724,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>10440</v>
       </c>
@@ -10748,7 +10747,7 @@
         <v>0.43402777777777773</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>10441</v>
       </c>
@@ -10771,7 +10770,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>10442</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>0.60902777777777783</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>10443</v>
       </c>
@@ -10817,7 +10816,7 @@
         <v>0.49791666666666662</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>10444</v>
       </c>
@@ -10840,7 +10839,7 @@
         <v>0.68958333333333333</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>10445</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>0.6743055555555556</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>10446</v>
       </c>
@@ -10886,7 +10885,7 @@
         <v>0.63124999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>10447</v>
       </c>
@@ -10909,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>10448</v>
       </c>
@@ -10932,7 +10931,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>10449</v>
       </c>
@@ -10955,7 +10954,7 @@
         <v>0.69861111111111107</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>10450</v>
       </c>
@@ -10978,7 +10977,7 @@
         <v>0.74444444444444446</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>10451</v>
       </c>
@@ -11001,7 +11000,7 @@
         <v>0.5229166666666667</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>10452</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>0.70486111111111116</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>10453</v>
       </c>
@@ -11047,7 +11046,7 @@
         <v>0.91388888888888886</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>10454</v>
       </c>
@@ -11070,7 +11069,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>10455</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>0.85138888888888886</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>10456</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>0.62638888888888888</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>10457</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>0.4597222222222222</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>10458</v>
       </c>
@@ -11162,7 +11161,7 @@
         <v>0.91041666666666676</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>10459</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>10460</v>
       </c>
@@ -11208,7 +11207,7 @@
         <v>0.71944444444444444</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>10461</v>
       </c>
@@ -11231,7 +11230,7 @@
         <v>0.5444444444444444</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>10462</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>0.92152777777777783</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>10463</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>10464</v>
       </c>
@@ -11300,7 +11299,7 @@
         <v>0.68194444444444446</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>10465</v>
       </c>
@@ -11323,7 +11322,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>10466</v>
       </c>
@@ -11346,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>10467</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>10468</v>
       </c>
@@ -11392,7 +11391,7 @@
         <v>0.43541666666666662</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>10469</v>
       </c>
@@ -11415,7 +11414,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>10470</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>10471</v>
       </c>
@@ -11461,7 +11460,7 @@
         <v>0.12708333333333333</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>10472</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>0.75138888888888899</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>10473</v>
       </c>
@@ -11507,7 +11506,7 @@
         <v>0.73055555555555562</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>10474</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>10475</v>
       </c>
@@ -11553,7 +11552,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>10476</v>
       </c>
@@ -11576,7 +11575,7 @@
         <v>0.91527777777777775</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>10477</v>
       </c>
@@ -11599,7 +11598,7 @@
         <v>0.76041666666666663</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>10478</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>0.76458333333333339</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>10479</v>
       </c>
@@ -11645,7 +11644,7 @@
         <v>0.8965277777777777</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>10480</v>
       </c>
@@ -11668,7 +11667,7 @@
         <v>0.8256944444444444</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>10481</v>
       </c>
@@ -11691,7 +11690,7 @@
         <v>0.81527777777777777</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>10482</v>
       </c>
@@ -11714,7 +11713,7 @@
         <v>0.33888888888888885</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>10483</v>
       </c>
@@ -11737,7 +11736,7 @@
         <v>0.56388888888888888</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>10484</v>
       </c>
@@ -11760,7 +11759,7 @@
         <v>0.7104166666666667</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>10485</v>
       </c>
@@ -11783,7 +11782,7 @@
         <v>0.65555555555555556</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>10486</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>0.6791666666666667</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>10487</v>
       </c>
@@ -11829,7 +11828,7 @@
         <v>0.8569444444444444</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>10488</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>0.93194444444444446</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>10489</v>
       </c>
@@ -11875,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>10490</v>
       </c>
@@ -11898,7 +11897,7 @@
         <v>0.65138888888888891</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>10491</v>
       </c>
@@ -11921,7 +11920,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>10492</v>
       </c>
@@ -11944,7 +11943,7 @@
         <v>0.60555555555555551</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>10493</v>
       </c>
@@ -11967,7 +11966,7 @@
         <v>0.87638888888888899</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>10494</v>
       </c>
@@ -11990,7 +11989,7 @@
         <v>0.64722222222222225</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>10495</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>0.85833333333333339</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>10496</v>
       </c>
@@ -12036,7 +12035,7 @@
         <v>0.38124999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>10497</v>
       </c>
@@ -12059,7 +12058,7 @@
         <v>0.72986111111111107</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>10498</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>10499</v>
       </c>
@@ -12105,7 +12104,7 @@
         <v>0.87152777777777779</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>10500</v>
       </c>
@@ -12128,7 +12127,7 @@
         <v>0.62291666666666667</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>10501</v>
       </c>
@@ -12151,7 +12150,7 @@
         <v>0.8340277777777777</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>10502</v>
       </c>
@@ -12174,7 +12173,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>10503</v>
       </c>
@@ -12197,7 +12196,7 @@
         <v>0.73541666666666661</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>10504</v>
       </c>
@@ -12220,7 +12219,7 @@
         <v>0.70347222222222217</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>10505</v>
       </c>
@@ -12243,7 +12242,7 @@
         <v>0.25416666666666665</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>10506</v>
       </c>
@@ -12266,7 +12265,7 @@
         <v>0.93680555555555556</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>10507</v>
       </c>
@@ -12289,7 +12288,7 @@
         <v>0.86319444444444438</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>10508</v>
       </c>
@@ -12312,7 +12311,7 @@
         <v>0.49652777777777773</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>10509</v>
       </c>
@@ -12335,7 +12334,7 @@
         <v>0.91111111111111109</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>10510</v>
       </c>
@@ -12358,7 +12357,7 @@
         <v>0.16944444444444443</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
